--- a/soberano/test_cases/counter_record_test_cases.xlsx
+++ b/soberano/test_cases/counter_record_test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t xml:space="preserve">TC Number</t>
   </si>
@@ -52,46 +52,76 @@
     <t xml:space="preserve">number of receivers empty</t>
   </si>
   <si>
+    <t xml:space="preserve">c1</t>
+  </si>
+  <si>
     <t xml:space="preserve">User1 is allowed to record counter</t>
   </si>
   <si>
-    <t xml:space="preserve">User1 tries to record another counter with the same code</t>
+    <t xml:space="preserve">User2 is allowed to record counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c2</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve">User2 is allowed to record counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c2</t>
-  </si>
-  <si>
     <t xml:space="preserve">User3 is allowed to record counter</t>
   </si>
   <si>
+    <t xml:space="preserve">c3</t>
+  </si>
+  <si>
     <t xml:space="preserve">User4 is allowed to record counter</t>
   </si>
   <si>
-    <t xml:space="preserve">d4</t>
+    <t xml:space="preserve">c4</t>
   </si>
   <si>
     <t xml:space="preserve">User5 is allowed to record counter</t>
   </si>
   <si>
+    <t xml:space="preserve">c5</t>
+  </si>
+  <si>
     <t xml:space="preserve">User6 is allowed to record counter</t>
   </si>
   <si>
-    <t xml:space="preserve">e6</t>
+    <t xml:space="preserve">c6</t>
   </si>
   <si>
     <t xml:space="preserve">User13 is NOT allowed to record counter</t>
   </si>
   <si>
+    <t xml:space="preserve">c7</t>
+  </si>
+  <si>
     <t xml:space="preserve">User14 is NOT allowed to record counter</t>
   </si>
   <si>
-    <t xml:space="preserve">f8</t>
+    <t xml:space="preserve">c8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User1 tries to record another counter with the same code and fails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check c1 data is correctly shown in details panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check c2 data is correctly shown in details panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check c3 data is correctly shown in details panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check c4 data is correctly shown in details panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check c5 data is correctly shown in details panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check c6 data is correctly shown in details panel</t>
   </si>
 </sst>
 </file>
@@ -234,10 +264,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ13"/>
+  <dimension ref="A1:AMJ19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="12:12"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -245,7 +275,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="31.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.92"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.23"/>
@@ -319,8 +349,8 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -334,10 +364,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="8" t="n">
-        <v>1</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>4</v>
@@ -354,10 +384,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>5</v>
@@ -366,7 +396,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -374,19 +404,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,19 +424,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8" t="n">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -414,19 +444,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -434,13 +464,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
@@ -454,13 +484,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>8</v>
@@ -474,19 +504,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,19 +524,67 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
